--- a/Файлы/1 курс/2 семестр/Теоретическая информатика/Лабы/26.03.25 - Лаба №4/Влад/4 лаба.xlsx
+++ b/Файлы/1 курс/2 семестр/Теоретическая информатика/Лабы/26.03.25 - Лаба №4/Влад/4 лаба.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\2 семестр\Теоретическая информатика\Лабы\26.03.25 - Лаба №4\Влад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\2 семестр\Теоретическая информатика\Лабы\26.03.25 - Лаба №4\Влад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC9F6F-DE13-4253-AE67-6B4C03660921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14400" windowHeight="15600" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Исходная таблица" sheetId="1" r:id="rId1"/>
+    <sheet name="Задание 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 4" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 5" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Задание 4'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Задание 5'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'Задание 4'!$A$18:$G$18</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">'Задание 5'!$O$1:$U$1</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'Задание 4'!#REF!</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'Задание 5'!$A$33:$G$35</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="22">
   <si>
     <t xml:space="preserve">Ведомость учёта заказов </t>
   </si>
@@ -86,11 +96,17 @@
   <si>
     <t>Тостер</t>
   </si>
+  <si>
+    <t>&gt; 01.04.2014</t>
+  </si>
+  <si>
+    <t>&lt; 30.04.2014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,16 +160,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,381 +473,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
         <v>41783</v>
       </c>
-      <c r="D3" s="3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
         <v>3100</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>37200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>41797</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>4200</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>21000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>41755</v>
       </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
         <v>600</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>41770</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>18</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>600</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>10800</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
         <v>41739</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>3100</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>49600</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>41818</v>
       </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>21000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>41819</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>27600</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>41762</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>15</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>18000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>41775</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>24</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>24</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>2100</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>50400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>41786</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>16</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>20</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>46000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
         <v>41735</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
         <v>3100</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>31000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>41788</v>
       </c>
-      <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>7200</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>41776</v>
       </c>
-      <c r="D15" s="3">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>12000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>41793</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>22</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>20</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>4200</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>84000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>41751</v>
       </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
         <v>950</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>7600</v>
       </c>
     </row>
@@ -836,4 +857,3147 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D3" s="2">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>41751</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>950</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41735</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41818</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41770</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>600</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41819</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G10" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41776</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G12" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G14" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>41762</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41788</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>900</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>41755</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>600</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:G17">
+    <sortCondition ref="A3:A17"/>
+    <sortCondition descending="1" ref="G3:G17"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41755</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>600</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>41770</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>600</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41818</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41819</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41762</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G11" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>41735</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>41788</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>900</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>41776</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41751</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>950</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G19" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>41819</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G20" s="2">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>41776</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G24" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G25" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3">
+        <v>41755</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2">
+        <v>600</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3">
+        <v>41770</v>
+      </c>
+      <c r="D27" s="2">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2">
+        <v>600</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D28" s="2">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G28" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3">
+        <v>41818</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G29" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3">
+        <v>41819</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G30" s="2">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3">
+        <v>41762</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G31" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D32" s="2">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G32" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D33" s="2">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G33" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3">
+        <v>41735</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G34" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="3">
+        <v>41788</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2">
+        <v>900</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="3">
+        <v>41776</v>
+      </c>
+      <c r="D36" s="2">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G36" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D37" s="2">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G37" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="3">
+        <v>41751</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2">
+        <v>950</v>
+      </c>
+      <c r="G38" s="2">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D41" s="2">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G41" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G42" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D43" s="2">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G43" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G46" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G47" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3">
+        <v>41819</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G48" s="2">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D49" s="2">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2">
+        <v>24</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G49" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="3">
+        <v>41776</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G50" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="3">
+        <v>41751</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2">
+        <v>950</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D54" s="2">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2">
+        <v>16</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G54" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3">
+        <v>41735</v>
+      </c>
+      <c r="D55" s="2">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G55" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D58" s="2">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G58" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="3">
+        <v>41770</v>
+      </c>
+      <c r="D59" s="2">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2">
+        <v>600</v>
+      </c>
+      <c r="G59" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="3">
+        <v>41762</v>
+      </c>
+      <c r="D60" s="2">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2">
+        <v>15</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D61" s="2">
+        <v>16</v>
+      </c>
+      <c r="E61" s="2">
+        <v>20</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G61" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="3">
+        <v>41776</v>
+      </c>
+      <c r="D62" s="2">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D65" s="2">
+        <v>22</v>
+      </c>
+      <c r="E65" s="2">
+        <v>20</v>
+      </c>
+      <c r="F65" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G65" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D68" s="2">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G68" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D69" s="2">
+        <v>24</v>
+      </c>
+      <c r="E69" s="2">
+        <v>24</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G69" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D70" s="2">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2">
+        <v>20</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G70" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D71" s="2">
+        <v>22</v>
+      </c>
+      <c r="E71" s="2">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G71" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D74" s="2">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G74" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D75" s="2">
+        <v>18</v>
+      </c>
+      <c r="E75" s="2">
+        <v>16</v>
+      </c>
+      <c r="F75" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G75" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D76" s="2">
+        <v>24</v>
+      </c>
+      <c r="E76" s="2">
+        <v>24</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G76" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D77" s="2">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G77" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="3">
+        <v>41735</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G78" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D79" s="2">
+        <v>22</v>
+      </c>
+      <c r="E79" s="2">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G79" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D82" s="2">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G82" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G83" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D84" s="2">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2">
+        <v>16</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G84" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="3">
+        <v>41819</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G85" s="2">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D86" s="2">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2">
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G86" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="3">
+        <v>41735</v>
+      </c>
+      <c r="D87" s="2">
+        <v>10</v>
+      </c>
+      <c r="E87" s="2">
+        <v>10</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G87" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D88" s="2">
+        <v>22</v>
+      </c>
+      <c r="E88" s="2">
+        <v>20</v>
+      </c>
+      <c r="F88" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G88" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41783</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>37200</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41797</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21000</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41755</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>600</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6000</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>41770</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>600</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10800</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>49600</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41818</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>21000</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41819</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41762</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G11" s="2">
+        <v>46000</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>41735</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>31000</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>41788</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>900</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7200</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>41776</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>12000</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>84000</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41751</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>950</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7600</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G19" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D20" s="2">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G20" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D21" s="2">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G21" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
+        <v>41755</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>600</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>41770</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2">
+        <v>600</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D26" s="2">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G26" s="2">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <v>41775</v>
+      </c>
+      <c r="D27" s="2">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G27" s="2">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3">
+        <v>41786</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2300</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="3">
+        <v>41788</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>900</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3">
+        <v>41793</v>
+      </c>
+      <c r="D30" s="2">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G30" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3">
+        <v>41751</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2">
+        <v>950</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>